--- a/Luz/SUM 109048/Recibos_luz_109048.xlsx
+++ b/Luz/SUM 109048/Recibos_luz_109048.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AGOSTO 14" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MAY 15" sheetId="13" r:id="rId9"/>
     <sheet name="JUN 15" sheetId="14" r:id="rId10"/>
     <sheet name="JUL 15" sheetId="15" r:id="rId11"/>
+    <sheet name="AGO 15" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'DIC 14'!$B$1:$J$64</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="79">
   <si>
     <t>Lectura Actual</t>
   </si>
@@ -259,6 +260,15 @@
   </si>
   <si>
     <t>Consumo Energía JUL 2015</t>
+  </si>
+  <si>
+    <t>Consumo Energía AGO 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 03-SET-2015</t>
+  </si>
+  <si>
+    <t>(18/08/15)</t>
   </si>
 </sst>
 </file>
@@ -4099,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5735,6 +5745,1655 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B63:D63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>13428.7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15">
+        <f>(H5/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="61"/>
+    </row>
+    <row r="6" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>13197.4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
+        <v>1.07</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15">
+        <f>(H6/3)</f>
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="K6" s="58"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17">
+        <f>(C5-C6)</f>
+        <v>231.30000000000109</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H7" s="19">
+        <f>(C7*G7)</f>
+        <v>101.95704000000049</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20">
+        <f>(C13*G7)</f>
+        <v>23.715039999999981</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+    </row>
+    <row r="8" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <v>5.63</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15">
+        <f>(H8/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="61"/>
+    </row>
+    <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15">
+        <f>(H9/3)</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="61"/>
+    </row>
+    <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14">
+        <f>((SUM(H5:H8)-H9)*0.18)</f>
+        <v>19.999267200000087</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" ref="I10:J10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f>((SUM(J5:J8)-J9)*0.18)</f>
+        <v>4.8177071999999956</v>
+      </c>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+    </row>
+    <row r="11" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1065.8</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1.78</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15">
+        <f>(H11/3)</f>
+        <v>0.59333333333333338</v>
+      </c>
+      <c r="K11" s="58"/>
+      <c r="L11" s="61"/>
+    </row>
+    <row r="12" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1012</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="65"/>
+    </row>
+    <row r="13" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17">
+        <f>(C11-C12)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <f>SUM(H5:H9)+SUM(H10:H11)</f>
+        <v>132.92630720000056</v>
+      </c>
+      <c r="I13" s="14">
+        <f>SUM(I5:I9)+SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f>SUM(J5:J9)+SUM(J10:J11)</f>
+        <v>32.189413866666641</v>
+      </c>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+    </row>
+    <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14">
+        <f>H15/3</f>
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1384.1</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="32">
+        <f>(H16/3)</f>
+        <v>0.03</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1315</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="65"/>
+    </row>
+    <row r="18" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="79">
+        <f>(C16-C17)</f>
+        <v>69.099999999999909</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
+        <f>(H13+H15-H16)</f>
+        <v>132.89630720000056</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" ref="I18:J18" si="1">(I13+I15-I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="1"/>
+        <v>32.179413866666643</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="34">
+        <f>(C7-C13-C18)</f>
+        <v>108.40000000000123</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="88">
+        <f>J18</f>
+        <v>32.179413866666643</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía AGO 2015</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="58"/>
+      <c r="L28" s="61"/>
+    </row>
+    <row r="29" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <f>C5</f>
+        <v>13428.7</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15">
+        <f>(H29/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K29" s="58"/>
+      <c r="L29" s="61"/>
+    </row>
+    <row r="30" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <f>C6</f>
+        <v>13197.4</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14">
+        <f>H6</f>
+        <v>1.07</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15">
+        <f t="shared" ref="J30" si="2">(H30/3)</f>
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="31" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="17">
+        <f>(C29-C30)</f>
+        <v>231.30000000000109</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="13">
+        <f>G7</f>
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H31" s="19">
+        <f>(C31*G31)</f>
+        <v>101.95704000000049</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
+        <f>(C42*G31)</f>
+        <v>30.459279999999961</v>
+      </c>
+      <c r="K31" s="58"/>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15">
+        <f t="shared" ref="J32" si="3">(H32/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="str">
+        <f>F9</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14">
+        <f>H9</f>
+        <v>0.02</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15">
+        <f>J9</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+    </row>
+    <row r="34" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14">
+        <f>((SUM(H29:H33))*0.18)</f>
+        <v>20.006467200000088</v>
+      </c>
+      <c r="I34" s="14">
+        <f>((SUM(I29:I33))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f>((SUM(J29:J33))*0.18)</f>
+        <v>6.034070399999993</v>
+      </c>
+      <c r="K34" s="58"/>
+      <c r="L34" s="65"/>
+    </row>
+    <row r="35" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="77">
+        <f>C11</f>
+        <v>1065.8</v>
+      </c>
+      <c r="D35" s="23" t="str">
+        <f>D29</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15">
+        <f t="shared" ref="J35" si="4">(H35/3)</f>
+        <v>0.68</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+    </row>
+    <row r="36" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="78">
+        <f>C12</f>
+        <v>1012</v>
+      </c>
+      <c r="D36" s="11" t="str">
+        <f>D30</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="79">
+        <f>(C35-C36)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14">
+        <f>SUM(H29:H33)+SUM(H34:H35)</f>
+        <v>133.19350720000057</v>
+      </c>
+      <c r="I37" s="14">
+        <f>SUM(I29:I33)+SUM(I34:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <f>SUM(J29:J33)+SUM(J34:J35)</f>
+        <v>40.236683733333287</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
+    </row>
+    <row r="38" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sra. Irene Pomacanchari)</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
+        <f>H39/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K39" s="49"/>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="80">
+        <f>C16</f>
+        <v>1384.1</v>
+      </c>
+      <c r="D40" s="23" t="str">
+        <f>D35</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14">
+        <f>H16</f>
+        <v>0.09</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="32">
+        <f>H40/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+    </row>
+    <row r="41" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <f>C17</f>
+        <v>1315</v>
+      </c>
+      <c r="D41" s="11" t="str">
+        <f>D36</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="17">
+        <f>(C40-C41)</f>
+        <v>69.099999999999909</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31">
+        <f>(H37+H39-H40)</f>
+        <v>133.12350720000057</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" ref="I42:J42" si="5">(I37+I39-I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" si="5"/>
+        <v>40.213350399999953</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="12"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C44" s="93"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="34">
+        <f>(C31-C37-C42)</f>
+        <v>108.40000000000123</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="88">
+        <f>J42</f>
+        <v>40.213350399999953</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+    </row>
+    <row r="46" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="44"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+    </row>
+    <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía AGO 2015</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
+      </c>
+      <c r="K50" s="58"/>
+      <c r="L50" s="61"/>
+    </row>
+    <row r="51" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="90"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
+    </row>
+    <row r="53" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <f>C29</f>
+        <v>13428.7</v>
+      </c>
+      <c r="D53" s="11" t="str">
+        <f>D29</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15">
+        <f>(H53/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K53" s="58"/>
+      <c r="L53" s="61"/>
+    </row>
+    <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10">
+        <f>C30</f>
+        <v>13197.4</v>
+      </c>
+      <c r="D54" s="11" t="str">
+        <f>D30</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14">
+        <f>H6</f>
+        <v>1.07</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15">
+        <f t="shared" ref="J54" si="6">(H54/3)</f>
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="17">
+        <f>(C53-C54)</f>
+        <v>231.30000000000109</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="13">
+        <f>G7</f>
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H55" s="19">
+        <f>(C55*G55)</f>
+        <v>101.95704000000049</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20">
+        <f>(C69*G55)</f>
+        <v>47.782720000000545</v>
+      </c>
+      <c r="K55" s="58"/>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15">
+        <f t="shared" ref="J56" si="7">(H56/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K56" s="58"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="str">
+        <f>F33</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14">
+        <f>H33</f>
+        <v>0.02</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15">
+        <f>J33</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K57" s="58"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14">
+        <f>((SUM(H53:H57))*0.18)</f>
+        <v>20.006467200000088</v>
+      </c>
+      <c r="I58" s="14">
+        <f>((SUM(I53:I57))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <f>((SUM(J53:J57))*0.18)</f>
+        <v>9.1522896000000973</v>
+      </c>
+      <c r="K58" s="58"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="77">
+        <f>C11</f>
+        <v>1065.8</v>
+      </c>
+      <c r="D59" s="23" t="str">
+        <f>D53</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="13">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H59" s="14">
+        <f>H11</f>
+        <v>1.78</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15">
+        <f t="shared" ref="J59" si="8">(H59/3)</f>
+        <v>0.59333333333333338</v>
+      </c>
+      <c r="K59" s="66"/>
+      <c r="L59" s="67"/>
+    </row>
+    <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="78">
+        <f>C12</f>
+        <v>1012</v>
+      </c>
+      <c r="D60" s="11" t="str">
+        <f>D54</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="65"/>
+    </row>
+    <row r="61" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="79">
+        <f>(C59-C60)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14">
+        <f>SUM(H53:H57)+SUM(H58:H59)</f>
+        <v>132.93350720000058</v>
+      </c>
+      <c r="I61" s="14">
+        <f>SUM(I53:I57)+SUM(I58:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <f>SUM(J53:J57)+SUM(J58:J59)</f>
+        <v>60.591676266667307</v>
+      </c>
+      <c r="K61" s="49"/>
+      <c r="L61" s="65"/>
+    </row>
+    <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+    </row>
+    <row r="63" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sra. Irene Pomacanchari)</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14">
+        <f>H15</f>
+        <v>0.06</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
+        <f>H63/3</f>
+        <v>0.02</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="80">
+        <f>C16</f>
+        <v>1384.1</v>
+      </c>
+      <c r="D64" s="23" t="str">
+        <f>D59</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14">
+        <f>H16</f>
+        <v>0.09</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="32">
+        <f>H64/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <f>C17</f>
+        <v>1315</v>
+      </c>
+      <c r="D65" s="11" t="str">
+        <f>D60</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="17">
+        <f>(C64-C65)</f>
+        <v>69.099999999999909</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31">
+        <f>(H61+H63-H64)</f>
+        <v>132.90350720000058</v>
+      </c>
+      <c r="I66" s="31">
+        <f t="shared" ref="I66:J66" si="9">(I61+I63-I64)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="31">
+        <f t="shared" si="9"/>
+        <v>60.581676266667309</v>
+      </c>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+    </row>
+    <row r="67" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="12"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+    </row>
+    <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+    </row>
+    <row r="69" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="34">
+        <f>(C55-C61-C66)</f>
+        <v>108.40000000000123</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="88">
+        <f>J66</f>
+        <v>60.581676266667309</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I71" s="44"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7300,11 +8959,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A40:C40"/>
@@ -7312,6 +8966,11 @@
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Luz/SUM 109048/Recibos_luz_109048.xlsx
+++ b/Luz/SUM 109048/Recibos_luz_109048.xlsx
@@ -262,13 +262,13 @@
     <t>Consumo Energía JUL 2015</t>
   </si>
   <si>
-    <t>Consumo Energía AGO 2015</t>
-  </si>
-  <si>
     <t>FECHA DE VENCIMIENTO: 03-SET-2015</t>
   </si>
   <si>
     <t>(18/08/15)</t>
+  </si>
+  <si>
+    <t>Consumo Energía AGOSTO 2015</t>
   </si>
 </sst>
 </file>
@@ -5755,7 +5755,7 @@
   <dimension ref="B1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -5799,7 +5799,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
         <v>13428.7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="8" t="s">
@@ -5975,7 +5975,7 @@
         <v>19.999267200000087</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" ref="I10:J10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
+        <f t="shared" ref="I10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
         <v>0</v>
       </c>
       <c r="J10" s="14">
@@ -6270,7 +6270,7 @@
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="str">
         <f>B2</f>
-        <v>Consumo Energía AGO 2015</v>
+        <v>Consumo Energía AGOSTO 2015</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -6774,7 +6774,7 @@
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="str">
         <f>B2</f>
-        <v>Consumo Energía AGO 2015</v>
+        <v>Consumo Energía AGOSTO 2015</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -7382,11 +7382,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B63:D63"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7394,6 +7389,11 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8959,6 +8959,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A40:C40"/>
@@ -8966,11 +8971,6 @@
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Luz/SUM 109048/Recibos_luz_109048.xlsx
+++ b/Luz/SUM 109048/Recibos_luz_109048.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 109048\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AGOSTO 14" sheetId="5" r:id="rId1"/>
@@ -19,6 +24,7 @@
     <sheet name="JUN 15" sheetId="14" r:id="rId10"/>
     <sheet name="JUL 15" sheetId="15" r:id="rId11"/>
     <sheet name="AGO 15" sheetId="16" r:id="rId12"/>
+    <sheet name="SET 15" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'DIC 14'!$B$1:$J$64</definedName>
@@ -27,12 +33,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'MAR 15'!$B$1:$J$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'MAY 15'!$B$1:$J$69</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="84">
   <si>
     <t>Lectura Actual</t>
   </si>
@@ -269,6 +275,21 @@
   </si>
   <si>
     <t>Consumo Energía AGOSTO 2015</t>
+  </si>
+  <si>
+    <t>(17/09/15)</t>
+  </si>
+  <si>
+    <t>Consumo Energía SETIEMBRE 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 05-OCT-2015</t>
+  </si>
+  <si>
+    <t>Sr. Miguel Angel Feijoo</t>
+  </si>
+  <si>
+    <t>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</t>
   </si>
 </sst>
 </file>
@@ -889,7 +910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,7 +945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5754,8 +5775,1655 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>13428.7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15">
+        <f>(H5/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="61"/>
+    </row>
+    <row r="6" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>13197.4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
+        <v>1.07</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15">
+        <f>(H6/3)</f>
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="K6" s="58"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17">
+        <f>(C5-C6)</f>
+        <v>231.30000000000109</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H7" s="19">
+        <f>(C7*G7)</f>
+        <v>101.95704000000049</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20">
+        <f>(C13*G7)</f>
+        <v>23.715039999999981</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+    </row>
+    <row r="8" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <v>5.63</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15">
+        <f>(H8/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="61"/>
+    </row>
+    <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15">
+        <f>(H9/3)</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="61"/>
+    </row>
+    <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14">
+        <f>((SUM(H5:H8)-H9)*0.18)</f>
+        <v>19.999267200000087</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" ref="I10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f>((SUM(J5:J8)-J9)*0.18)</f>
+        <v>4.8177071999999956</v>
+      </c>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+    </row>
+    <row r="11" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1065.8</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1.78</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15">
+        <f>(H11/3)</f>
+        <v>0.59333333333333338</v>
+      </c>
+      <c r="K11" s="58"/>
+      <c r="L11" s="61"/>
+    </row>
+    <row r="12" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1012</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="65"/>
+    </row>
+    <row r="13" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17">
+        <f>(C11-C12)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <f>SUM(H5:H9)+SUM(H10:H11)</f>
+        <v>132.92630720000056</v>
+      </c>
+      <c r="I13" s="14">
+        <f>SUM(I5:I9)+SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f>SUM(J5:J9)+SUM(J10:J11)</f>
+        <v>32.189413866666641</v>
+      </c>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+    </row>
+    <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14">
+        <f>H15/3</f>
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1384.1</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="32">
+        <f>(H16/3)</f>
+        <v>0.03</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1315</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="65"/>
+    </row>
+    <row r="18" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="79">
+        <f>(C16-C17)</f>
+        <v>69.099999999999909</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
+        <f>(H13+H15-H16)</f>
+        <v>132.89630720000056</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" ref="I18:J18" si="1">(I13+I15-I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="1"/>
+        <v>32.179413866666643</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="34">
+        <f>(C7-C13-C18)</f>
+        <v>108.40000000000123</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="88">
+        <f>J18</f>
+        <v>32.179413866666643</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía AGOSTO 2015</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="58"/>
+      <c r="L28" s="61"/>
+    </row>
+    <row r="29" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <f>C5</f>
+        <v>13428.7</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f>D5</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15">
+        <f>(H29/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K29" s="58"/>
+      <c r="L29" s="61"/>
+    </row>
+    <row r="30" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <f>C6</f>
+        <v>13197.4</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f>D6</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14">
+        <f>H6</f>
+        <v>1.07</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15">
+        <f t="shared" ref="J30" si="2">(H30/3)</f>
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="31" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="17">
+        <f>(C29-C30)</f>
+        <v>231.30000000000109</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="13">
+        <f>G7</f>
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H31" s="19">
+        <f>(C31*G31)</f>
+        <v>101.95704000000049</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
+        <f>(C42*G31)</f>
+        <v>30.459279999999961</v>
+      </c>
+      <c r="K31" s="58"/>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15">
+        <f t="shared" ref="J32" si="3">(H32/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="str">
+        <f>F9</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14">
+        <f>H9</f>
+        <v>0.02</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15">
+        <f>J9</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+    </row>
+    <row r="34" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14">
+        <f>((SUM(H29:H33))*0.18)</f>
+        <v>20.006467200000088</v>
+      </c>
+      <c r="I34" s="14">
+        <f>((SUM(I29:I33))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f>((SUM(J29:J33))*0.18)</f>
+        <v>6.034070399999993</v>
+      </c>
+      <c r="K34" s="58"/>
+      <c r="L34" s="65"/>
+    </row>
+    <row r="35" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="77">
+        <f>C11</f>
+        <v>1065.8</v>
+      </c>
+      <c r="D35" s="23" t="str">
+        <f>D29</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15">
+        <f t="shared" ref="J35" si="4">(H35/3)</f>
+        <v>0.68</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+    </row>
+    <row r="36" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="78">
+        <f>C12</f>
+        <v>1012</v>
+      </c>
+      <c r="D36" s="11" t="str">
+        <f>D30</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="79">
+        <f>(C35-C36)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14">
+        <f>SUM(H29:H33)+SUM(H34:H35)</f>
+        <v>133.19350720000057</v>
+      </c>
+      <c r="I37" s="14">
+        <f>SUM(I29:I33)+SUM(I34:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <f>SUM(J29:J33)+SUM(J34:J35)</f>
+        <v>40.236683733333287</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
+    </row>
+    <row r="38" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sra. Irene Pomacanchari)</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
+        <f>H39/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K39" s="49"/>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="80">
+        <f>C16</f>
+        <v>1384.1</v>
+      </c>
+      <c r="D40" s="23" t="str">
+        <f>D35</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14">
+        <f>H16</f>
+        <v>0.09</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="32">
+        <f>H40/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+    </row>
+    <row r="41" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <f>C17</f>
+        <v>1315</v>
+      </c>
+      <c r="D41" s="11" t="str">
+        <f>D36</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="17">
+        <f>(C40-C41)</f>
+        <v>69.099999999999909</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31">
+        <f>(H37+H39-H40)</f>
+        <v>133.12350720000057</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" ref="I42:J42" si="5">(I37+I39-I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" si="5"/>
+        <v>40.213350399999953</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="12"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C44" s="93"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="34">
+        <f>(C31-C37-C42)</f>
+        <v>108.40000000000123</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="88">
+        <f>J42</f>
+        <v>40.213350399999953</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+    </row>
+    <row r="46" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="44"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+    </row>
+    <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía AGOSTO 2015</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
+      </c>
+      <c r="K50" s="58"/>
+      <c r="L50" s="61"/>
+    </row>
+    <row r="51" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="90"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
+    </row>
+    <row r="53" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <f>C29</f>
+        <v>13428.7</v>
+      </c>
+      <c r="D53" s="11" t="str">
+        <f>D29</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15">
+        <f>(H53/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K53" s="58"/>
+      <c r="L53" s="61"/>
+    </row>
+    <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10">
+        <f>C30</f>
+        <v>13197.4</v>
+      </c>
+      <c r="D54" s="11" t="str">
+        <f>D30</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14">
+        <f>H6</f>
+        <v>1.07</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15">
+        <f t="shared" ref="J54" si="6">(H54/3)</f>
+        <v>0.35666666666666669</v>
+      </c>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="17">
+        <f>(C53-C54)</f>
+        <v>231.30000000000109</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="13">
+        <f>G7</f>
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="H55" s="19">
+        <f>(C55*G55)</f>
+        <v>101.95704000000049</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20">
+        <f>(C69*G55)</f>
+        <v>47.782720000000545</v>
+      </c>
+      <c r="K55" s="58"/>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15">
+        <f t="shared" ref="J56" si="7">(H56/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K56" s="58"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="str">
+        <f>F33</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14">
+        <f>H33</f>
+        <v>0.02</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15">
+        <f>J33</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K57" s="58"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14">
+        <f>((SUM(H53:H57))*0.18)</f>
+        <v>20.006467200000088</v>
+      </c>
+      <c r="I58" s="14">
+        <f>((SUM(I53:I57))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <f>((SUM(J53:J57))*0.18)</f>
+        <v>9.1522896000000973</v>
+      </c>
+      <c r="K58" s="58"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="77">
+        <f>C11</f>
+        <v>1065.8</v>
+      </c>
+      <c r="D59" s="23" t="str">
+        <f>D53</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="13">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H59" s="14">
+        <f>H11</f>
+        <v>1.78</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15">
+        <f t="shared" ref="J59" si="8">(H59/3)</f>
+        <v>0.59333333333333338</v>
+      </c>
+      <c r="K59" s="66"/>
+      <c r="L59" s="67"/>
+    </row>
+    <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="78">
+        <f>C12</f>
+        <v>1012</v>
+      </c>
+      <c r="D60" s="11" t="str">
+        <f>D54</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="65"/>
+    </row>
+    <row r="61" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="79">
+        <f>(C59-C60)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14">
+        <f>SUM(H53:H57)+SUM(H58:H59)</f>
+        <v>132.93350720000058</v>
+      </c>
+      <c r="I61" s="14">
+        <f>SUM(I53:I57)+SUM(I58:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <f>SUM(J53:J57)+SUM(J58:J59)</f>
+        <v>60.591676266667307</v>
+      </c>
+      <c r="K61" s="49"/>
+      <c r="L61" s="65"/>
+    </row>
+    <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+    </row>
+    <row r="63" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sra. Irene Pomacanchari)</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14">
+        <f>H15</f>
+        <v>0.06</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
+        <f>H63/3</f>
+        <v>0.02</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="80">
+        <f>C16</f>
+        <v>1384.1</v>
+      </c>
+      <c r="D64" s="23" t="str">
+        <f>D59</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14">
+        <f>H16</f>
+        <v>0.09</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="32">
+        <f>H64/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <f>C17</f>
+        <v>1315</v>
+      </c>
+      <c r="D65" s="11" t="str">
+        <f>D60</f>
+        <v>(16/07/15)</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="17">
+        <f>(C64-C65)</f>
+        <v>69.099999999999909</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31">
+        <f>(H61+H63-H64)</f>
+        <v>132.90350720000058</v>
+      </c>
+      <c r="I66" s="31">
+        <f t="shared" ref="I66:J66" si="9">(I61+I63-I64)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="31">
+        <f t="shared" si="9"/>
+        <v>60.581676266667309</v>
+      </c>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+    </row>
+    <row r="67" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="12"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+    </row>
+    <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+    </row>
+    <row r="69" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="34">
+        <f>(C55-C61-C66)</f>
+        <v>108.40000000000123</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="88">
+        <f>J66</f>
+        <v>60.581676266667309</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I71" s="44"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5789,7 +7457,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -5799,7 +7467,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5842,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="10">
-        <v>13428.7</v>
+        <v>13597.9</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="8" t="s">
@@ -5868,10 +7536,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="10">
-        <v>13197.4</v>
+        <v>13428.7</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="8" t="s">
@@ -5879,12 +7547,12 @@
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15">
         <f>(H6/3)</f>
-        <v>0.35666666666666669</v>
+        <v>0.39333333333333331</v>
       </c>
       <c r="K6" s="58"/>
       <c r="L6" s="61"/>
@@ -5895,7 +7563,7 @@
       </c>
       <c r="C7" s="17">
         <f>(C5-C6)</f>
-        <v>231.30000000000109</v>
+        <v>169.19999999999891</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>10</v>
@@ -5904,17 +7572,17 @@
       <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13">
-        <v>0.44080000000000003</v>
+      <c r="G7" s="82">
+        <v>0.44700000000000001</v>
       </c>
       <c r="H7" s="19">
         <f>(C7*G7)</f>
-        <v>101.95704000000049</v>
+        <v>75.632399999999507</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="20">
         <f>(C13*G7)</f>
-        <v>23.715039999999981</v>
+        <v>25.74720000000006</v>
       </c>
       <c r="K7" s="63"/>
       <c r="L7" s="64"/>
@@ -5949,12 +7617,12 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="15">
         <f>(H9/3)</f>
-        <v>6.6666666666666671E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K9" s="58"/>
       <c r="L9" s="61"/>
@@ -5972,7 +7640,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14">
         <f>((SUM(H5:H8)-H9)*0.18)</f>
-        <v>19.999267200000087</v>
+        <v>15.278831999999911</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" ref="I10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
@@ -5980,7 +7648,7 @@
       </c>
       <c r="J10" s="14">
         <f>((SUM(J5:J8)-J9)*0.18)</f>
-        <v>4.8177071999999956</v>
+        <v>5.1894960000000099</v>
       </c>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -5990,11 +7658,11 @@
         <v>0</v>
       </c>
       <c r="C11" s="10">
-        <v>1065.8</v>
+        <v>1123.4000000000001</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>D5</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
@@ -6004,12 +7672,12 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H11" s="14">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="15">
         <f>(H11/3)</f>
-        <v>0.59333333333333338</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="K11" s="58"/>
       <c r="L11" s="61"/>
@@ -6019,11 +7687,11 @@
         <v>1</v>
       </c>
       <c r="C12" s="10">
-        <v>1012</v>
+        <v>1065.8</v>
       </c>
       <c r="D12" s="11" t="str">
         <f>D6</f>
-        <v>(16/07/15)</v>
+        <v>(18/08/15)</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -6040,7 +7708,7 @@
       </c>
       <c r="C13" s="17">
         <f>(C11-C12)</f>
-        <v>53.799999999999955</v>
+        <v>57.600000000000136</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>10</v>
@@ -6052,7 +7720,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14">
         <f>SUM(H5:H9)+SUM(H10:H11)</f>
-        <v>132.92630720000056</v>
+        <v>101.52123199999942</v>
       </c>
       <c r="I13" s="14">
         <f>SUM(I5:I9)+SUM(I10:I11)</f>
@@ -6060,7 +7728,7 @@
       </c>
       <c r="J13" s="14">
         <f>SUM(J5:J9)+SUM(J10:J11)</f>
-        <v>32.189413866666641</v>
+        <v>34.473362666666738</v>
       </c>
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
@@ -6080,7 +7748,7 @@
     </row>
     <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="92" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="94"/>
@@ -6090,12 +7758,12 @@
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14">
         <f>H15/3</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
@@ -6105,11 +7773,11 @@
         <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>1384.1</v>
+        <v>1406.01</v>
       </c>
       <c r="D16" s="11" t="str">
         <f>D5</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
@@ -6117,12 +7785,12 @@
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="32">
         <f>(H16/3)</f>
-        <v>0.03</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="65"/>
@@ -6132,11 +7800,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="10">
-        <v>1315</v>
+        <v>1384.1</v>
       </c>
       <c r="D17" s="11" t="str">
         <f>D6</f>
-        <v>(16/07/15)</v>
+        <v>(18/08/15)</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -6153,7 +7821,7 @@
       </c>
       <c r="C18" s="79">
         <f>(C16-C17)</f>
-        <v>69.099999999999909</v>
+        <v>21.910000000000082</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>10</v>
@@ -6165,7 +7833,7 @@
       <c r="G18" s="30"/>
       <c r="H18" s="31">
         <f>(H13+H15-H16)</f>
-        <v>132.89630720000056</v>
+        <v>101.60123199999941</v>
       </c>
       <c r="I18" s="31">
         <f t="shared" ref="I18:J18" si="1">(I13+I15-I16)</f>
@@ -6173,7 +7841,7 @@
       </c>
       <c r="J18" s="31">
         <f t="shared" si="1"/>
-        <v>32.179413866666643</v>
+        <v>34.500029333333408</v>
       </c>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
@@ -6203,7 +7871,7 @@
       </c>
       <c r="C21" s="34">
         <f>(C7-C13-C18)</f>
-        <v>108.40000000000123</v>
+        <v>89.68999999999869</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>10</v>
@@ -6215,7 +7883,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="88">
         <f>J18</f>
-        <v>32.179413866666643</v>
+        <v>34.500029333333408</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="8"/>
@@ -6270,7 +7938,7 @@
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="str">
         <f>B2</f>
-        <v>Consumo Energía AGOSTO 2015</v>
+        <v>Consumo Energía SETIEMBRE 2015</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -6281,7 +7949,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="87" t="str">
         <f>J2</f>
-        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
+        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
       </c>
       <c r="K26" s="55"/>
       <c r="L26" s="2"/>
@@ -6328,11 +7996,11 @@
       </c>
       <c r="C29" s="10">
         <f>C5</f>
-        <v>13428.7</v>
+        <v>13597.9</v>
       </c>
       <c r="D29" s="11" t="str">
         <f>D5</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="8" t="s">
@@ -6357,11 +8025,11 @@
       </c>
       <c r="C30" s="10">
         <f>C6</f>
-        <v>13197.4</v>
+        <v>13428.7</v>
       </c>
       <c r="D30" s="11" t="str">
         <f>D6</f>
-        <v>(16/07/15)</v>
+        <v>(18/08/15)</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="8" t="s">
@@ -6370,12 +8038,12 @@
       <c r="G30" s="13"/>
       <c r="H30" s="14">
         <f>H6</f>
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="15">
         <f t="shared" ref="J30" si="2">(H30/3)</f>
-        <v>0.35666666666666669</v>
+        <v>0.39333333333333331</v>
       </c>
       <c r="K30" s="63"/>
       <c r="L30" s="64"/>
@@ -6386,7 +8054,7 @@
       </c>
       <c r="C31" s="17">
         <f>(C29-C30)</f>
-        <v>231.30000000000109</v>
+        <v>169.19999999999891</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>10</v>
@@ -6397,16 +8065,16 @@
       </c>
       <c r="G31" s="13">
         <f>G7</f>
-        <v>0.44080000000000003</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="H31" s="19">
         <f>(C31*G31)</f>
-        <v>101.95704000000049</v>
+        <v>75.632399999999507</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="20">
         <f>(C42*G31)</f>
-        <v>30.459279999999961</v>
+        <v>9.7937700000000376</v>
       </c>
       <c r="K31" s="58"/>
       <c r="L31" s="61"/>
@@ -6444,12 +8112,12 @@
       <c r="G33" s="13"/>
       <c r="H33" s="14">
         <f>H9</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="15">
         <f>J9</f>
-        <v>6.6666666666666671E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
@@ -6467,7 +8135,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="14">
         <f>((SUM(H29:H33))*0.18)</f>
-        <v>20.006467200000088</v>
+        <v>15.28963199999991</v>
       </c>
       <c r="I34" s="14">
         <f>((SUM(I29:I33))*0.18)</f>
@@ -6475,7 +8143,7 @@
       </c>
       <c r="J34" s="14">
         <f>((SUM(J29:J33))*0.18)</f>
-        <v>6.034070399999993</v>
+        <v>2.3214786000000065</v>
       </c>
       <c r="K34" s="58"/>
       <c r="L34" s="65"/>
@@ -6486,11 +8154,11 @@
       </c>
       <c r="C35" s="77">
         <f>C11</f>
-        <v>1065.8</v>
+        <v>1123.4000000000001</v>
       </c>
       <c r="D35" s="23" t="str">
         <f>D29</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
@@ -6516,11 +8184,11 @@
       </c>
       <c r="C36" s="78">
         <f>C12</f>
-        <v>1012</v>
+        <v>1065.8</v>
       </c>
       <c r="D36" s="11" t="str">
         <f>D30</f>
-        <v>(16/07/15)</v>
+        <v>(18/08/15)</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -6537,7 +8205,7 @@
       </c>
       <c r="C37" s="79">
         <f>(C35-C36)</f>
-        <v>53.799999999999955</v>
+        <v>57.600000000000136</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>10</v>
@@ -6549,7 +8217,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="14">
         <f>SUM(H29:H33)+SUM(H34:H35)</f>
-        <v>133.19350720000057</v>
+        <v>102.27203199999943</v>
       </c>
       <c r="I37" s="14">
         <f>SUM(I29:I33)+SUM(I34:I35)</f>
@@ -6557,7 +8225,7 @@
       </c>
       <c r="J37" s="14">
         <f>SUM(J29:J33)+SUM(J34:J35)</f>
-        <v>40.236683733333287</v>
+        <v>15.898581933333379</v>
       </c>
       <c r="K37" s="66"/>
       <c r="L37" s="67"/>
@@ -6578,7 +8246,7 @@
     <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="92" t="str">
         <f>B15</f>
-        <v>MEDIDOR 2 - M2 (Sra. Irene Pomacanchari)</v>
+        <v>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</v>
       </c>
       <c r="C39" s="93"/>
       <c r="D39" s="94"/>
@@ -6604,11 +8272,11 @@
       </c>
       <c r="C40" s="80">
         <f>C16</f>
-        <v>1384.1</v>
+        <v>1406.01</v>
       </c>
       <c r="D40" s="23" t="str">
         <f>D35</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
@@ -6617,12 +8285,12 @@
       <c r="G40" s="13"/>
       <c r="H40" s="14">
         <f>H16</f>
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="32">
         <f>H40/3</f>
-        <v>0.03</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
@@ -6633,11 +8301,11 @@
       </c>
       <c r="C41" s="10">
         <f>C17</f>
-        <v>1315</v>
+        <v>1384.1</v>
       </c>
       <c r="D41" s="11" t="str">
         <f>D36</f>
-        <v>(16/07/15)</v>
+        <v>(18/08/15)</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -6654,7 +8322,7 @@
       </c>
       <c r="C42" s="17">
         <f>(C40-C41)</f>
-        <v>69.099999999999909</v>
+        <v>21.910000000000082</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>10</v>
@@ -6666,7 +8334,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f>(H37+H39-H40)</f>
-        <v>133.12350720000057</v>
+        <v>102.28203199999942</v>
       </c>
       <c r="I42" s="31">
         <f t="shared" ref="I42:J42" si="5">(I37+I39-I40)</f>
@@ -6674,7 +8342,7 @@
       </c>
       <c r="J42" s="31">
         <f t="shared" si="5"/>
-        <v>40.213350399999953</v>
+        <v>15.901915266666711</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -6709,19 +8377,19 @@
       </c>
       <c r="C45" s="34">
         <f>(C31-C37-C42)</f>
-        <v>108.40000000000123</v>
+        <v>89.68999999999869</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="42" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="88">
         <f>J42</f>
-        <v>40.213350399999953</v>
+        <v>15.901915266666711</v>
       </c>
       <c r="I45" s="31"/>
       <c r="J45" s="8"/>
@@ -6774,7 +8442,7 @@
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="str">
         <f>B2</f>
-        <v>Consumo Energía AGOSTO 2015</v>
+        <v>Consumo Energía SETIEMBRE 2015</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -6785,7 +8453,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="87" t="str">
         <f>J2</f>
-        <v>FECHA DE VENCIMIENTO: 03-SET-2015</v>
+        <v>FECHA DE VENCIMIENTO: 05-OCT-2015</v>
       </c>
       <c r="K50" s="58"/>
       <c r="L50" s="61"/>
@@ -6832,11 +8500,11 @@
       </c>
       <c r="C53" s="10">
         <f>C29</f>
-        <v>13428.7</v>
+        <v>13597.9</v>
       </c>
       <c r="D53" s="11" t="str">
         <f>D29</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="8" t="s">
@@ -6861,11 +8529,11 @@
       </c>
       <c r="C54" s="10">
         <f>C30</f>
-        <v>13197.4</v>
+        <v>13428.7</v>
       </c>
       <c r="D54" s="11" t="str">
         <f>D30</f>
-        <v>(16/07/15)</v>
+        <v>(18/08/15)</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="8" t="s">
@@ -6874,12 +8542,12 @@
       <c r="G54" s="13"/>
       <c r="H54" s="14">
         <f>H6</f>
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="15">
         <f t="shared" ref="J54" si="6">(H54/3)</f>
-        <v>0.35666666666666669</v>
+        <v>0.39333333333333331</v>
       </c>
       <c r="K54" s="60"/>
       <c r="L54" s="60"/>
@@ -6890,7 +8558,7 @@
       </c>
       <c r="C55" s="17">
         <f>(C53-C54)</f>
-        <v>231.30000000000109</v>
+        <v>169.19999999999891</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>10</v>
@@ -6901,16 +8569,16 @@
       </c>
       <c r="G55" s="13">
         <f>G7</f>
-        <v>0.44080000000000003</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="H55" s="19">
         <f>(C55*G55)</f>
-        <v>101.95704000000049</v>
+        <v>75.632399999999507</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="20">
         <f>(C69*G55)</f>
-        <v>47.782720000000545</v>
+        <v>40.091429999999413</v>
       </c>
       <c r="K55" s="58"/>
       <c r="L55" s="61"/>
@@ -6948,12 +8616,12 @@
       <c r="G57" s="13"/>
       <c r="H57" s="14">
         <f>H33</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="15">
         <f>J33</f>
-        <v>6.6666666666666671E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K57" s="58"/>
       <c r="L57" s="65"/>
@@ -6971,7 +8639,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="14">
         <f>((SUM(H53:H57))*0.18)</f>
-        <v>20.006467200000088</v>
+        <v>15.28963199999991</v>
       </c>
       <c r="I58" s="14">
         <f>((SUM(I53:I57))*0.18)</f>
@@ -6979,7 +8647,7 @@
       </c>
       <c r="J58" s="14">
         <f>((SUM(J53:J57))*0.18)</f>
-        <v>9.1522896000000973</v>
+        <v>7.775057399999894</v>
       </c>
       <c r="K58" s="58"/>
       <c r="L58" s="65"/>
@@ -6990,11 +8658,11 @@
       </c>
       <c r="C59" s="77">
         <f>C11</f>
-        <v>1065.8</v>
+        <v>1123.4000000000001</v>
       </c>
       <c r="D59" s="23" t="str">
         <f>D53</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
@@ -7006,12 +8674,12 @@
       </c>
       <c r="H59" s="14">
         <f>H11</f>
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="15">
         <f t="shared" ref="J59" si="8">(H59/3)</f>
-        <v>0.59333333333333338</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="K59" s="66"/>
       <c r="L59" s="67"/>
@@ -7022,11 +8690,11 @@
       </c>
       <c r="C60" s="78">
         <f>C12</f>
-        <v>1012</v>
+        <v>1065.8</v>
       </c>
       <c r="D60" s="11" t="str">
         <f>D54</f>
-        <v>(16/07/15)</v>
+        <v>(18/08/15)</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -7043,7 +8711,7 @@
       </c>
       <c r="C61" s="79">
         <f>(C59-C60)</f>
-        <v>53.799999999999955</v>
+        <v>57.600000000000136</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>10</v>
@@ -7055,7 +8723,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="14">
         <f>SUM(H53:H57)+SUM(H58:H59)</f>
-        <v>132.93350720000058</v>
+        <v>101.53203199999942</v>
       </c>
       <c r="I61" s="14">
         <f>SUM(I53:I57)+SUM(I58:I59)</f>
@@ -7063,7 +8731,7 @@
       </c>
       <c r="J61" s="14">
         <f>SUM(J53:J57)+SUM(J58:J59)</f>
-        <v>60.591676266667307</v>
+        <v>51.403154066665969</v>
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="65"/>
@@ -7084,7 +8752,7 @@
     <row r="63" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="92" t="str">
         <f>B15</f>
-        <v>MEDIDOR 2 - M2 (Sra. Irene Pomacanchari)</v>
+        <v>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</v>
       </c>
       <c r="C63" s="93"/>
       <c r="D63" s="94"/>
@@ -7095,12 +8763,12 @@
       <c r="G63" s="13"/>
       <c r="H63" s="14">
         <f>H15</f>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14">
         <f>H63/3</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -7111,11 +8779,11 @@
       </c>
       <c r="C64" s="80">
         <f>C16</f>
-        <v>1384.1</v>
+        <v>1406.01</v>
       </c>
       <c r="D64" s="23" t="str">
         <f>D59</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
@@ -7124,12 +8792,12 @@
       <c r="G64" s="13"/>
       <c r="H64" s="14">
         <f>H16</f>
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="32">
         <f>H64/3</f>
-        <v>0.03</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -7140,11 +8808,11 @@
       </c>
       <c r="C65" s="10">
         <f>C17</f>
-        <v>1315</v>
+        <v>1384.1</v>
       </c>
       <c r="D65" s="11" t="str">
         <f>D60</f>
-        <v>(16/07/15)</v>
+        <v>(18/08/15)</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -7161,7 +8829,7 @@
       </c>
       <c r="C66" s="17">
         <f>(C64-C65)</f>
-        <v>69.099999999999909</v>
+        <v>21.910000000000082</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>10</v>
@@ -7173,7 +8841,7 @@
       <c r="G66" s="30"/>
       <c r="H66" s="31">
         <f>(H61+H63-H64)</f>
-        <v>132.90350720000058</v>
+        <v>101.61203199999942</v>
       </c>
       <c r="I66" s="31">
         <f t="shared" ref="I66:J66" si="9">(I61+I63-I64)</f>
@@ -7181,7 +8849,7 @@
       </c>
       <c r="J66" s="31">
         <f t="shared" si="9"/>
-        <v>60.581676266667309</v>
+        <v>51.42982073333264</v>
       </c>
       <c r="K66" s="65"/>
       <c r="L66" s="65"/>
@@ -7216,7 +8884,7 @@
       </c>
       <c r="C69" s="34">
         <f>(C55-C61-C66)</f>
-        <v>108.40000000000123</v>
+        <v>89.68999999999869</v>
       </c>
       <c r="D69" s="35" t="s">
         <v>10</v>
@@ -7228,7 +8896,7 @@
       <c r="G69" s="43"/>
       <c r="H69" s="88">
         <f>J66</f>
-        <v>60.581676266667309</v>
+        <v>51.42982073333264</v>
       </c>
       <c r="I69" s="31"/>
       <c r="J69" s="8"/>
@@ -7382,6 +9050,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -7389,11 +9062,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B63:D63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8959,11 +10627,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A40:C40"/>
@@ -8971,6 +10634,11 @@
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Luz/SUM 109048/Recibos_luz_109048.xlsx
+++ b/Luz/SUM 109048/Recibos_luz_109048.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AGOSTO 14" sheetId="5" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="JUL 15" sheetId="15" r:id="rId11"/>
     <sheet name="AGO 15" sheetId="16" r:id="rId12"/>
     <sheet name="SET 15" sheetId="17" r:id="rId13"/>
+    <sheet name="Hoja1" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'DIC 14'!$B$1:$J$64</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="86">
   <si>
     <t>Lectura Actual</t>
   </si>
@@ -290,6 +291,12 @@
   </si>
   <si>
     <t>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</t>
+  </si>
+  <si>
+    <t>Consumo Energía OCTUBRE 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 04-NOV-2015</t>
   </si>
 </sst>
 </file>
@@ -7422,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8897,6 +8904,1655 @@
       <c r="H69" s="88">
         <f>J66</f>
         <v>51.42982073333264</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I71" s="44"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>13597.9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15">
+        <f>(H5/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="61"/>
+    </row>
+    <row r="6" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>13428.7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
+        <v>1.18</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15">
+        <f>(H6/3)</f>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="K6" s="58"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17">
+        <f>(C5-C6)</f>
+        <v>169.19999999999891</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H7" s="19">
+        <f>(C7*G7)</f>
+        <v>75.632399999999507</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20">
+        <f>(C13*G7)</f>
+        <v>26.998799999999939</v>
+      </c>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+    </row>
+    <row r="8" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <v>5.63</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15">
+        <f>(H8/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="61"/>
+    </row>
+    <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15">
+        <f>(H9/3)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="61"/>
+    </row>
+    <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14">
+        <f>((SUM(H5:H8)-H9)*0.18)</f>
+        <v>15.278831999999911</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" ref="I10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f>((SUM(J5:J8)-J9)*0.18)</f>
+        <v>5.4147839999999885</v>
+      </c>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+    </row>
+    <row r="11" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1183.8</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>D5</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15">
+        <f>(H11/3)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="K11" s="58"/>
+      <c r="L11" s="61"/>
+    </row>
+    <row r="12" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1123.4000000000001</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>D6</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="65"/>
+    </row>
+    <row r="13" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17">
+        <f>(C11-C12)</f>
+        <v>60.399999999999864</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <f>SUM(H5:H9)+SUM(H10:H11)</f>
+        <v>101.52123199999942</v>
+      </c>
+      <c r="I13" s="14">
+        <f>SUM(I5:I9)+SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f>SUM(J5:J9)+SUM(J10:J11)</f>
+        <v>35.950250666666598</v>
+      </c>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+    </row>
+    <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14">
+        <f>H15/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1506.1</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>D5</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="32">
+        <f>(H16/3)</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1406.01</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>D6</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="65"/>
+    </row>
+    <row r="18" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="79">
+        <f>(C16-C17)</f>
+        <v>100.08999999999992</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
+        <f>(H13+H15-H16)</f>
+        <v>101.60123199999941</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" ref="I18:J18" si="1">(I13+I15-I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="1"/>
+        <v>35.976917333333269</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="34">
+        <f>(C7-C13-C18)</f>
+        <v>8.7099999999991269</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="88">
+        <f>J18</f>
+        <v>35.976917333333269</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía OCTUBRE 2015</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 04-NOV-2015</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="58"/>
+      <c r="L28" s="61"/>
+    </row>
+    <row r="29" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <f>C5</f>
+        <v>13597.9</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f>D5</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15">
+        <f>(H29/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K29" s="58"/>
+      <c r="L29" s="61"/>
+    </row>
+    <row r="30" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <f>C6</f>
+        <v>13428.7</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f>D6</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14">
+        <f>H6</f>
+        <v>1.18</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15">
+        <f t="shared" ref="J30" si="2">(H30/3)</f>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="31" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="17">
+        <f>(C29-C30)</f>
+        <v>169.19999999999891</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="13">
+        <f>G7</f>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H31" s="19">
+        <f>(C31*G31)</f>
+        <v>75.632399999999507</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
+        <f>(C42*G31)</f>
+        <v>44.740229999999961</v>
+      </c>
+      <c r="K31" s="58"/>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15">
+        <f t="shared" ref="J32" si="3">(H32/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="str">
+        <f>F9</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14">
+        <f>H9</f>
+        <v>0.03</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15">
+        <f>J9</f>
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+    </row>
+    <row r="34" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14">
+        <f>((SUM(H29:H33))*0.18)</f>
+        <v>15.28963199999991</v>
+      </c>
+      <c r="I34" s="14">
+        <f>((SUM(I29:I33))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f>((SUM(J29:J33))*0.18)</f>
+        <v>8.6118413999999923</v>
+      </c>
+      <c r="K34" s="58"/>
+      <c r="L34" s="65"/>
+    </row>
+    <row r="35" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="77">
+        <f>C11</f>
+        <v>1183.8</v>
+      </c>
+      <c r="D35" s="23" t="str">
+        <f>D29</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15">
+        <f t="shared" ref="J35" si="4">(H35/3)</f>
+        <v>0.68</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+    </row>
+    <row r="36" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="78">
+        <f>C12</f>
+        <v>1123.4000000000001</v>
+      </c>
+      <c r="D36" s="11" t="str">
+        <f>D30</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="79">
+        <f>(C35-C36)</f>
+        <v>60.399999999999864</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14">
+        <f>SUM(H29:H33)+SUM(H34:H35)</f>
+        <v>102.27203199999943</v>
+      </c>
+      <c r="I37" s="14">
+        <f>SUM(I29:I33)+SUM(I34:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <f>SUM(J29:J33)+SUM(J34:J35)</f>
+        <v>57.135404733333289</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
+    </row>
+    <row r="38" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
+        <f>H39/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K39" s="49"/>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="80">
+        <f>C16</f>
+        <v>1506.1</v>
+      </c>
+      <c r="D40" s="23" t="str">
+        <f>D35</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14">
+        <f>H16</f>
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="32">
+        <f>H40/3</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+    </row>
+    <row r="41" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <f>C17</f>
+        <v>1406.01</v>
+      </c>
+      <c r="D41" s="11" t="str">
+        <f>D36</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="17">
+        <f>(C40-C41)</f>
+        <v>100.08999999999992</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31">
+        <f>(H37+H39-H40)</f>
+        <v>102.28203199999942</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" ref="I42:J42" si="5">(I37+I39-I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" si="5"/>
+        <v>57.138738066666626</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="12"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C44" s="93"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="34">
+        <f>(C31-C37-C42)</f>
+        <v>8.7099999999991269</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="88">
+        <f>J42</f>
+        <v>57.138738066666626</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+    </row>
+    <row r="46" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="44"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+    </row>
+    <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía OCTUBRE 2015</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 04-NOV-2015</v>
+      </c>
+      <c r="K50" s="58"/>
+      <c r="L50" s="61"/>
+    </row>
+    <row r="51" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="90"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
+    </row>
+    <row r="53" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <f>C29</f>
+        <v>13597.9</v>
+      </c>
+      <c r="D53" s="11" t="str">
+        <f>D29</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15">
+        <f>(H53/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K53" s="58"/>
+      <c r="L53" s="61"/>
+    </row>
+    <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10">
+        <f>C30</f>
+        <v>13428.7</v>
+      </c>
+      <c r="D54" s="11" t="str">
+        <f>D30</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14">
+        <f>H6</f>
+        <v>1.18</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15">
+        <f t="shared" ref="J54" si="6">(H54/3)</f>
+        <v>0.39333333333333331</v>
+      </c>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="17">
+        <f>(C53-C54)</f>
+        <v>169.19999999999891</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="13">
+        <f>G7</f>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H55" s="19">
+        <f>(C55*G55)</f>
+        <v>75.632399999999507</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20">
+        <f>(C69*G55)</f>
+        <v>3.8933699999996096</v>
+      </c>
+      <c r="K55" s="58"/>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15">
+        <f t="shared" ref="J56" si="7">(H56/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K56" s="58"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="str">
+        <f>F33</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14">
+        <f>H33</f>
+        <v>0.03</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15">
+        <f>J33</f>
+        <v>0.01</v>
+      </c>
+      <c r="K57" s="58"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14">
+        <f>((SUM(H53:H57))*0.18)</f>
+        <v>15.28963199999991</v>
+      </c>
+      <c r="I58" s="14">
+        <f>((SUM(I53:I57))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <f>((SUM(J53:J57))*0.18)</f>
+        <v>1.2594065999999298</v>
+      </c>
+      <c r="K58" s="58"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="77">
+        <f>C11</f>
+        <v>1183.8</v>
+      </c>
+      <c r="D59" s="23" t="str">
+        <f>D53</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="13">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H59" s="14">
+        <f>H11</f>
+        <v>1.3</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15">
+        <f t="shared" ref="J59" si="8">(H59/3)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="K59" s="66"/>
+      <c r="L59" s="67"/>
+    </row>
+    <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="78">
+        <f>C12</f>
+        <v>1123.4000000000001</v>
+      </c>
+      <c r="D60" s="11" t="str">
+        <f>D54</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="65"/>
+    </row>
+    <row r="61" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="79">
+        <f>(C59-C60)</f>
+        <v>60.399999999999864</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14">
+        <f>SUM(H53:H57)+SUM(H58:H59)</f>
+        <v>101.53203199999942</v>
+      </c>
+      <c r="I61" s="14">
+        <f>SUM(I53:I57)+SUM(I58:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <f>SUM(J53:J57)+SUM(J58:J59)</f>
+        <v>8.6894432666662063</v>
+      </c>
+      <c r="K61" s="49"/>
+      <c r="L61" s="65"/>
+    </row>
+    <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+    </row>
+    <row r="63" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14">
+        <f>H15</f>
+        <v>0.09</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
+        <f>H63/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="80">
+        <f>C16</f>
+        <v>1506.1</v>
+      </c>
+      <c r="D64" s="23" t="str">
+        <f>D59</f>
+        <v>(17/09/15)</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14">
+        <f>H16</f>
+        <v>0.01</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="32">
+        <f>H64/3</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <f>C17</f>
+        <v>1406.01</v>
+      </c>
+      <c r="D65" s="11" t="str">
+        <f>D60</f>
+        <v>(18/08/15)</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="17">
+        <f>(C64-C65)</f>
+        <v>100.08999999999992</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31">
+        <f>(H61+H63-H64)</f>
+        <v>101.61203199999942</v>
+      </c>
+      <c r="I66" s="31">
+        <f t="shared" ref="I66:J66" si="9">(I61+I63-I64)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="31">
+        <f t="shared" si="9"/>
+        <v>8.7161099333328718</v>
+      </c>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+    </row>
+    <row r="67" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="12"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+    </row>
+    <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+    </row>
+    <row r="69" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="34">
+        <f>(C55-C61-C66)</f>
+        <v>8.7099999999991269</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="88">
+        <f>J66</f>
+        <v>8.7161099333328718</v>
       </c>
       <c r="I69" s="31"/>
       <c r="J69" s="8"/>
@@ -10627,6 +12283,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A40:C40"/>
@@ -10634,11 +12295,6 @@
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Luz/SUM 109048/Recibos_luz_109048.xlsx
+++ b/Luz/SUM 109048/Recibos_luz_109048.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AGOSTO 14" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="JUL 15" sheetId="15" r:id="rId11"/>
     <sheet name="AGO 15" sheetId="16" r:id="rId12"/>
     <sheet name="SET 15" sheetId="17" r:id="rId13"/>
-    <sheet name="Hoja1" sheetId="18" r:id="rId14"/>
+    <sheet name="OCT 15" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'DIC 14'!$B$1:$J$64</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="87">
   <si>
     <t>Lectura Actual</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>FECHA DE VENCIMIENTO: 04-NOV-2015</t>
+  </si>
+  <si>
+    <t>(19/10/15)</t>
   </si>
 </sst>
 </file>
@@ -7430,7 +7433,7 @@
   <dimension ref="B1:L82"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9078,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9166,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="10">
-        <v>13597.9</v>
+        <v>13864.3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="8" t="s">
@@ -9192,10 +9195,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="10">
-        <v>13428.7</v>
+        <v>13597.9</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="8" t="s">
@@ -9203,12 +9206,12 @@
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15">
         <f>(H6/3)</f>
-        <v>0.39333333333333331</v>
+        <v>0.4366666666666667</v>
       </c>
       <c r="K6" s="58"/>
       <c r="L6" s="61"/>
@@ -9219,7 +9222,7 @@
       </c>
       <c r="C7" s="17">
         <f>(C5-C6)</f>
-        <v>169.19999999999891</v>
+        <v>266.39999999999964</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>10</v>
@@ -9229,16 +9232,16 @@
         <v>20</v>
       </c>
       <c r="G7" s="82">
-        <v>0.44700000000000001</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="H7" s="19">
         <f>(C7*G7)</f>
-        <v>75.632399999999507</v>
+        <v>119.69351999999984</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="20">
         <f>(C13*G7)</f>
-        <v>26.998799999999939</v>
+        <v>27.137719999999938</v>
       </c>
       <c r="K7" s="63"/>
       <c r="L7" s="64"/>
@@ -9273,12 +9276,12 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="15">
         <f>(H9/3)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K9" s="58"/>
       <c r="L9" s="61"/>
@@ -9296,7 +9299,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14">
         <f>((SUM(H5:H8)-H9)*0.18)</f>
-        <v>15.278831999999911</v>
+        <v>23.238633599999968</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" ref="I10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
@@ -9304,7 +9307,7 @@
       </c>
       <c r="J10" s="14">
         <f>((SUM(J5:J8)-J9)*0.18)</f>
-        <v>5.4147839999999885</v>
+        <v>5.4493895999999884</v>
       </c>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
@@ -9318,7 +9321,7 @@
       </c>
       <c r="D11" s="11" t="str">
         <f>D5</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
@@ -9328,12 +9331,12 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="H11" s="14">
-        <v>1.3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="15">
         <f>(H11/3)</f>
-        <v>0.43333333333333335</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="K11" s="58"/>
       <c r="L11" s="61"/>
@@ -9347,7 +9350,7 @@
       </c>
       <c r="D12" s="11" t="str">
         <f>D6</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -9376,7 +9379,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14">
         <f>SUM(H5:H9)+SUM(H10:H11)</f>
-        <v>101.52123199999942</v>
+        <v>154.3921535999998</v>
       </c>
       <c r="I13" s="14">
         <f>SUM(I5:I9)+SUM(I10:I11)</f>
@@ -9384,7 +9387,7 @@
       </c>
       <c r="J13" s="14">
         <f>SUM(J5:J9)+SUM(J10:J11)</f>
-        <v>35.950250666666598</v>
+        <v>36.407109599999927</v>
       </c>
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
@@ -9414,12 +9417,12 @@
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14">
         <f>H15/3</f>
-        <v>0.03</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
@@ -9433,7 +9436,7 @@
       </c>
       <c r="D16" s="11" t="str">
         <f>D5</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
@@ -9441,12 +9444,12 @@
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="32">
         <f>(H16/3)</f>
-        <v>3.3333333333333335E-3</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K16" s="49"/>
       <c r="L16" s="65"/>
@@ -9460,7 +9463,7 @@
       </c>
       <c r="D17" s="11" t="str">
         <f>D6</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -9489,7 +9492,7 @@
       <c r="G18" s="30"/>
       <c r="H18" s="31">
         <f>(H13+H15-H16)</f>
-        <v>101.60123199999941</v>
+        <v>154.3021535999998</v>
       </c>
       <c r="I18" s="31">
         <f t="shared" ref="I18:J18" si="1">(I13+I15-I16)</f>
@@ -9497,7 +9500,7 @@
       </c>
       <c r="J18" s="31">
         <f t="shared" si="1"/>
-        <v>35.976917333333269</v>
+        <v>36.377109599999926</v>
       </c>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
@@ -9527,7 +9530,7 @@
       </c>
       <c r="C21" s="34">
         <f>(C7-C13-C18)</f>
-        <v>8.7099999999991269</v>
+        <v>105.90999999999985</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>10</v>
@@ -9539,7 +9542,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="88">
         <f>J18</f>
-        <v>35.976917333333269</v>
+        <v>36.377109599999926</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="8"/>
@@ -9652,11 +9655,11 @@
       </c>
       <c r="C29" s="10">
         <f>C5</f>
-        <v>13597.9</v>
+        <v>13864.3</v>
       </c>
       <c r="D29" s="11" t="str">
         <f>D5</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="8" t="s">
@@ -9681,11 +9684,11 @@
       </c>
       <c r="C30" s="10">
         <f>C6</f>
-        <v>13428.7</v>
+        <v>13597.9</v>
       </c>
       <c r="D30" s="11" t="str">
         <f>D6</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="8" t="s">
@@ -9694,12 +9697,12 @@
       <c r="G30" s="13"/>
       <c r="H30" s="14">
         <f>H6</f>
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="15">
         <f t="shared" ref="J30" si="2">(H30/3)</f>
-        <v>0.39333333333333331</v>
+        <v>0.4366666666666667</v>
       </c>
       <c r="K30" s="63"/>
       <c r="L30" s="64"/>
@@ -9710,7 +9713,7 @@
       </c>
       <c r="C31" s="17">
         <f>(C29-C30)</f>
-        <v>169.19999999999891</v>
+        <v>266.39999999999964</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>10</v>
@@ -9721,16 +9724,16 @@
       </c>
       <c r="G31" s="13">
         <f>G7</f>
-        <v>0.44700000000000001</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="H31" s="19">
         <f>(C31*G31)</f>
-        <v>75.632399999999507</v>
+        <v>119.69351999999984</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="20">
         <f>(C42*G31)</f>
-        <v>44.740229999999961</v>
+        <v>44.970436999999961</v>
       </c>
       <c r="K31" s="58"/>
       <c r="L31" s="61"/>
@@ -9768,12 +9771,12 @@
       <c r="G33" s="13"/>
       <c r="H33" s="14">
         <f>H9</f>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="15">
         <f>J9</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
@@ -9791,7 +9794,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="14">
         <f>((SUM(H29:H33))*0.18)</f>
-        <v>15.28963199999991</v>
+        <v>23.238633599999968</v>
       </c>
       <c r="I34" s="14">
         <f>((SUM(I29:I33))*0.18)</f>
@@ -9799,7 +9802,7 @@
       </c>
       <c r="J34" s="14">
         <f>((SUM(J29:J33))*0.18)</f>
-        <v>8.6118413999999923</v>
+        <v>8.6592786599999929</v>
       </c>
       <c r="K34" s="58"/>
       <c r="L34" s="65"/>
@@ -9814,7 +9817,7 @@
       </c>
       <c r="D35" s="23" t="str">
         <f>D29</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
@@ -9844,7 +9847,7 @@
       </c>
       <c r="D36" s="11" t="str">
         <f>D30</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -9873,7 +9876,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="14">
         <f>SUM(H29:H33)+SUM(H34:H35)</f>
-        <v>102.27203199999943</v>
+        <v>154.38215359999981</v>
       </c>
       <c r="I37" s="14">
         <f>SUM(I29:I33)+SUM(I34:I35)</f>
@@ -9881,7 +9884,7 @@
       </c>
       <c r="J37" s="14">
         <f>SUM(J29:J33)+SUM(J34:J35)</f>
-        <v>57.135404733333289</v>
+        <v>57.446382326666615</v>
       </c>
       <c r="K37" s="66"/>
       <c r="L37" s="67"/>
@@ -9932,7 +9935,7 @@
       </c>
       <c r="D40" s="23" t="str">
         <f>D35</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
@@ -9941,12 +9944,12 @@
       <c r="G40" s="13"/>
       <c r="H40" s="14">
         <f>H16</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="32">
         <f>H40/3</f>
-        <v>3.3333333333333335E-3</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
@@ -9961,7 +9964,7 @@
       </c>
       <c r="D41" s="11" t="str">
         <f>D36</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -9990,7 +9993,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f>(H37+H39-H40)</f>
-        <v>102.28203199999942</v>
+        <v>154.30215359999983</v>
       </c>
       <c r="I42" s="31">
         <f t="shared" ref="I42:J42" si="5">(I37+I39-I40)</f>
@@ -9998,7 +10001,7 @@
       </c>
       <c r="J42" s="31">
         <f t="shared" si="5"/>
-        <v>57.138738066666626</v>
+        <v>57.419715659999952</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -10033,7 +10036,7 @@
       </c>
       <c r="C45" s="34">
         <f>(C31-C37-C42)</f>
-        <v>8.7099999999991269</v>
+        <v>105.90999999999985</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>10</v>
@@ -10045,7 +10048,7 @@
       <c r="G45" s="43"/>
       <c r="H45" s="88">
         <f>J42</f>
-        <v>57.138738066666626</v>
+        <v>57.419715659999952</v>
       </c>
       <c r="I45" s="31"/>
       <c r="J45" s="8"/>
@@ -10156,11 +10159,11 @@
       </c>
       <c r="C53" s="10">
         <f>C29</f>
-        <v>13597.9</v>
+        <v>13864.3</v>
       </c>
       <c r="D53" s="11" t="str">
         <f>D29</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="8" t="s">
@@ -10185,11 +10188,11 @@
       </c>
       <c r="C54" s="10">
         <f>C30</f>
-        <v>13428.7</v>
+        <v>13597.9</v>
       </c>
       <c r="D54" s="11" t="str">
         <f>D30</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="8" t="s">
@@ -10198,12 +10201,12 @@
       <c r="G54" s="13"/>
       <c r="H54" s="14">
         <f>H6</f>
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="15">
         <f t="shared" ref="J54" si="6">(H54/3)</f>
-        <v>0.39333333333333331</v>
+        <v>0.4366666666666667</v>
       </c>
       <c r="K54" s="60"/>
       <c r="L54" s="60"/>
@@ -10214,7 +10217,7 @@
       </c>
       <c r="C55" s="17">
         <f>(C53-C54)</f>
-        <v>169.19999999999891</v>
+        <v>266.39999999999964</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>10</v>
@@ -10225,16 +10228,16 @@
       </c>
       <c r="G55" s="13">
         <f>G7</f>
-        <v>0.44700000000000001</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="H55" s="19">
         <f>(C55*G55)</f>
-        <v>75.632399999999507</v>
+        <v>119.69351999999984</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="20">
         <f>(C69*G55)</f>
-        <v>3.8933699999996096</v>
+        <v>47.58536299999993</v>
       </c>
       <c r="K55" s="58"/>
       <c r="L55" s="61"/>
@@ -10272,12 +10275,12 @@
       <c r="G57" s="13"/>
       <c r="H57" s="14">
         <f>H33</f>
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="15">
         <f>J33</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K57" s="58"/>
       <c r="L57" s="65"/>
@@ -10295,7 +10298,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="14">
         <f>((SUM(H53:H57))*0.18)</f>
-        <v>15.28963199999991</v>
+        <v>23.238633599999968</v>
       </c>
       <c r="I58" s="14">
         <f>((SUM(I53:I57))*0.18)</f>
@@ -10303,7 +10306,7 @@
       </c>
       <c r="J58" s="14">
         <f>((SUM(J53:J57))*0.18)</f>
-        <v>1.2594065999999298</v>
+        <v>9.1299653399999858</v>
       </c>
       <c r="K58" s="58"/>
       <c r="L58" s="65"/>
@@ -10318,7 +10321,7 @@
       </c>
       <c r="D59" s="23" t="str">
         <f>D53</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
@@ -10330,12 +10333,12 @@
       </c>
       <c r="H59" s="14">
         <f>H11</f>
-        <v>1.3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="15">
         <f t="shared" ref="J59" si="8">(H59/3)</f>
-        <v>0.43333333333333335</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="K59" s="66"/>
       <c r="L59" s="67"/>
@@ -10350,7 +10353,7 @@
       </c>
       <c r="D60" s="11" t="str">
         <f>D54</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -10379,7 +10382,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="14">
         <f>SUM(H53:H57)+SUM(H58:H59)</f>
-        <v>101.53203199999942</v>
+        <v>154.3921535999998</v>
       </c>
       <c r="I61" s="14">
         <f>SUM(I53:I57)+SUM(I58:I59)</f>
@@ -10387,7 +10390,7 @@
       </c>
       <c r="J61" s="14">
         <f>SUM(J53:J57)+SUM(J58:J59)</f>
-        <v>8.6894432666662063</v>
+        <v>60.535328339999914</v>
       </c>
       <c r="K61" s="49"/>
       <c r="L61" s="65"/>
@@ -10419,12 +10422,12 @@
       <c r="G63" s="13"/>
       <c r="H63" s="14">
         <f>H15</f>
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14">
         <f>H63/3</f>
-        <v>0.03</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -10439,7 +10442,7 @@
       </c>
       <c r="D64" s="23" t="str">
         <f>D59</f>
-        <v>(17/09/15)</v>
+        <v>(19/10/15)</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
@@ -10448,12 +10451,12 @@
       <c r="G64" s="13"/>
       <c r="H64" s="14">
         <f>H16</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="32">
         <f>H64/3</f>
-        <v>3.3333333333333335E-3</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -10468,7 +10471,7 @@
       </c>
       <c r="D65" s="11" t="str">
         <f>D60</f>
-        <v>(18/08/15)</v>
+        <v>(17/09/15)</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -10497,7 +10500,7 @@
       <c r="G66" s="30"/>
       <c r="H66" s="31">
         <f>(H61+H63-H64)</f>
-        <v>101.61203199999942</v>
+        <v>154.3021535999998</v>
       </c>
       <c r="I66" s="31">
         <f t="shared" ref="I66:J66" si="9">(I61+I63-I64)</f>
@@ -10505,7 +10508,7 @@
       </c>
       <c r="J66" s="31">
         <f t="shared" si="9"/>
-        <v>8.7161099333328718</v>
+        <v>60.505328339999913</v>
       </c>
       <c r="K66" s="65"/>
       <c r="L66" s="65"/>
@@ -10540,7 +10543,7 @@
       </c>
       <c r="C69" s="34">
         <f>(C55-C61-C66)</f>
-        <v>8.7099999999991269</v>
+        <v>105.90999999999985</v>
       </c>
       <c r="D69" s="35" t="s">
         <v>10</v>
@@ -10552,7 +10555,7 @@
       <c r="G69" s="43"/>
       <c r="H69" s="88">
         <f>J66</f>
-        <v>8.7161099333328718</v>
+        <v>60.505328339999913</v>
       </c>
       <c r="I69" s="31"/>
       <c r="J69" s="8"/>
@@ -10706,11 +10709,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B63:D63"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:D10"/>
@@ -10718,6 +10716,11 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12283,11 +12286,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A40:C40"/>
@@ -12295,6 +12293,11 @@
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Luz/SUM 109048/Recibos_luz_109048.xlsx
+++ b/Luz/SUM 109048/Recibos_luz_109048.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="87">
   <si>
     <t>Lectura Actual</t>
   </si>
@@ -9081,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9161,8 +9161,12 @@
       <c r="J4" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="K4" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="83" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -9187,8 +9191,14 @@
         <f>(H5/3)</f>
         <v>0.82333333333333336</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="61"/>
+      <c r="K5" s="15">
+        <f>H5/3</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="L5" s="15">
+        <f>H5/3</f>
+        <v>0.82333333333333336</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -9210,11 +9220,17 @@
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15">
-        <f>(H6/3)</f>
+        <f t="shared" ref="J6:J16" si="0">(H6/3)</f>
         <v>0.4366666666666667</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="61"/>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:K16" si="1">H6/3</f>
+        <v>0.4366666666666667</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" ref="L6:L16" si="2">H6/3</f>
+        <v>0.4366666666666667</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
@@ -9239,12 +9255,18 @@
         <v>119.69351999999984</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="20">
-        <f>(C13*G7)</f>
+      <c r="J7" s="15">
+        <f>G7*C13</f>
         <v>27.137719999999938</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="K7" s="15">
+        <f>G7*C18</f>
+        <v>44.970436999999961</v>
+      </c>
+      <c r="L7" s="15">
+        <f>G7*C21</f>
+        <v>47.58536299999993</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
@@ -9263,8 +9285,14 @@
         <f>(H8/3)</f>
         <v>1.8766666666666667</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="61"/>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8766666666666667</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -9283,8 +9311,14 @@
         <f>(H9/3)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="61"/>
+      <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="92" t="s">
@@ -9302,15 +9336,21 @@
         <v>23.238633599999968</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" ref="I10" si="0">((SUM(I5:I8)-I9)*0.18)</f>
+        <f t="shared" ref="I10:L10" si="3">((SUM(I5:I8)-I9)*0.18)</f>
         <v>0</v>
       </c>
       <c r="J10" s="14">
-        <f>((SUM(J5:J8)-J9)*0.18)</f>
+        <f t="shared" si="3"/>
         <v>5.4493895999999884</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
+      <c r="K10" s="14">
+        <f t="shared" si="3"/>
+        <v>8.6592786599999929</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="3"/>
+        <v>9.1299653399999858</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
@@ -9335,11 +9375,17 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="15">
-        <f>(H11/3)</f>
+        <f t="shared" si="0"/>
         <v>0.68333333333333324</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="61"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.68333333333333324</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -9357,9 +9403,18 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="65"/>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -9382,15 +9437,21 @@
         <v>154.3921535999998</v>
       </c>
       <c r="I13" s="14">
-        <f>SUM(I5:I9)+SUM(I10:I11)</f>
+        <f t="shared" ref="I13:L13" si="4">SUM(I5:I9)+SUM(I10:I11)</f>
         <v>0</v>
       </c>
       <c r="J13" s="14">
-        <f>SUM(J5:J9)+SUM(J10:J11)</f>
+        <f t="shared" si="4"/>
         <v>36.407109599999927</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
+      <c r="K13" s="14">
+        <f t="shared" si="4"/>
+        <v>57.449715659999953</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="4"/>
+        <v>60.535328339999914</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -9402,8 +9463,8 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="65"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="92" t="s">
@@ -9420,12 +9481,18 @@
         <v>0.01</v>
       </c>
       <c r="I15" s="14"/>
-      <c r="J15" s="14">
+      <c r="J15" s="15">
         <f>H15/3</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
+      <c r="K15" s="15">
+        <f>H15/3</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L15" s="15">
+        <f>H15/3</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
     </row>
     <row r="16" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
@@ -9447,12 +9514,18 @@
         <v>0.1</v>
       </c>
       <c r="I16" s="14"/>
-      <c r="J16" s="32">
+      <c r="J16" s="15">
         <f>(H16/3)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="65"/>
+      <c r="K16" s="15">
+        <f>H16/3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
@@ -9471,8 +9544,8 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="65"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
@@ -9495,15 +9568,21 @@
         <v>154.3021535999998</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" ref="I18:J18" si="1">(I13+I15-I16)</f>
+        <f t="shared" ref="I18:J18" si="5">(I13+I15-I16)</f>
         <v>0</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>36.377109599999926</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
+      <c r="K18" s="31">
+        <f t="shared" ref="K18:L18" si="6">(K13+K15-K16)</f>
+        <v>57.419715659999952</v>
+      </c>
+      <c r="L18" s="31">
+        <f t="shared" si="6"/>
+        <v>60.505328339999913</v>
+      </c>
     </row>
     <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -9701,7 +9780,7 @@
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="15">
-        <f t="shared" ref="J30" si="2">(H30/3)</f>
+        <f t="shared" ref="J30" si="7">(H30/3)</f>
         <v>0.4366666666666667</v>
       </c>
       <c r="K30" s="63"/>
@@ -9753,7 +9832,7 @@
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="15">
-        <f t="shared" ref="J32" si="3">(H32/3)</f>
+        <f t="shared" ref="J32" si="8">(H32/3)</f>
         <v>1.8766666666666667</v>
       </c>
       <c r="K32" s="60"/>
@@ -9831,7 +9910,7 @@
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="15">
-        <f t="shared" ref="J35" si="4">(H35/3)</f>
+        <f t="shared" ref="J35" si="9">(H35/3)</f>
         <v>0.68</v>
       </c>
       <c r="K35" s="60"/>
@@ -9996,11 +10075,11 @@
         <v>154.30215359999983</v>
       </c>
       <c r="I42" s="31">
-        <f t="shared" ref="I42:J42" si="5">(I37+I39-I40)</f>
+        <f t="shared" ref="I42:J42" si="10">(I37+I39-I40)</f>
         <v>0</v>
       </c>
       <c r="J42" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>57.419715659999952</v>
       </c>
       <c r="K42" s="2"/>
@@ -10205,7 +10284,7 @@
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="15">
-        <f t="shared" ref="J54" si="6">(H54/3)</f>
+        <f t="shared" ref="J54" si="11">(H54/3)</f>
         <v>0.4366666666666667</v>
       </c>
       <c r="K54" s="60"/>
@@ -10257,7 +10336,7 @@
       </c>
       <c r="I56" s="14"/>
       <c r="J56" s="15">
-        <f t="shared" ref="J56" si="7">(H56/3)</f>
+        <f t="shared" ref="J56" si="12">(H56/3)</f>
         <v>1.8766666666666667</v>
       </c>
       <c r="K56" s="58"/>
@@ -10337,7 +10416,7 @@
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="15">
-        <f t="shared" ref="J59" si="8">(H59/3)</f>
+        <f t="shared" ref="J59" si="13">(H59/3)</f>
         <v>0.68333333333333324</v>
       </c>
       <c r="K59" s="66"/>
@@ -10503,11 +10582,11 @@
         <v>154.3021535999998</v>
       </c>
       <c r="I66" s="31">
-        <f t="shared" ref="I66:J66" si="9">(I61+I63-I64)</f>
+        <f t="shared" ref="I66:J66" si="14">(I61+I63-I64)</f>
         <v>0</v>
       </c>
       <c r="J66" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>60.505328339999913</v>
       </c>
       <c r="K66" s="65"/>
@@ -12286,6 +12365,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A40:C40"/>
@@ -12293,11 +12377,6 @@
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Luz/SUM 109048/Recibos_luz_109048.xlsx
+++ b/Luz/SUM 109048/Recibos_luz_109048.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 109048\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AGOSTO 14" sheetId="5" r:id="rId1"/>
@@ -26,6 +21,7 @@
     <sheet name="AGO 15" sheetId="16" r:id="rId12"/>
     <sheet name="SET 15" sheetId="17" r:id="rId13"/>
     <sheet name="OCT 15" sheetId="18" r:id="rId14"/>
+    <sheet name="NOV 15" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'DIC 14'!$B$1:$J$64</definedName>
@@ -34,12 +30,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'MAR 15'!$B$1:$J$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'MAY 15'!$B$1:$J$69</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="90">
   <si>
     <t>Lectura Actual</t>
   </si>
@@ -300,6 +296,15 @@
   </si>
   <si>
     <t>(19/10/15)</t>
+  </si>
+  <si>
+    <t>(17/11/15)</t>
+  </si>
+  <si>
+    <t>Consumo Energía NOVIEMBRE 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 03-DIC-2015</t>
   </si>
 </sst>
 </file>
@@ -920,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,7 +960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9081,8 +9086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9220,11 +9225,11 @@
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15">
-        <f t="shared" ref="J6:J16" si="0">(H6/3)</f>
+        <f t="shared" ref="J6:J12" si="0">(H6/3)</f>
         <v>0.4366666666666667</v>
       </c>
       <c r="K6" s="15">
-        <f t="shared" ref="K6:K16" si="1">H6/3</f>
+        <f t="shared" ref="K6:K12" si="1">H6/3</f>
         <v>0.4366666666666667</v>
       </c>
       <c r="L6" s="15">
@@ -10635,6 +10640,1734 @@
       <c r="H69" s="88">
         <f>J66</f>
         <v>60.505328339999913</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I71" s="44"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>14077.3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15">
+        <f>(H5/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K5" s="15">
+        <f>H5/3</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="L5" s="15">
+        <f>H5/3</f>
+        <v>0.82333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>13864.3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
+        <v>1.31</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15">
+        <f t="shared" ref="J6:J12" si="0">(H6/3)</f>
+        <v>0.4366666666666667</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:K12" si="1">H6/3</f>
+        <v>0.4366666666666667</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" ref="L6:L16" si="2">H6/3</f>
+        <v>0.4366666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17">
+        <f>(C5-C6)</f>
+        <v>213</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="H7" s="19">
+        <f>(C7*G7)</f>
+        <v>95.381399999999999</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="15">
+        <f>G7*C13</f>
+        <v>24.091639999999977</v>
+      </c>
+      <c r="K7" s="15">
+        <f>G7*C18</f>
+        <v>26.733660000000018</v>
+      </c>
+      <c r="L7" s="15">
+        <f>G7*C21</f>
+        <v>44.556100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <v>5.63</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15">
+        <f>(H8/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8766666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15">
+        <f>(H9/3)</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14">
+        <f>((SUM(H5:H8)-H9)*0.18)</f>
+        <v>18.855251999999997</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" ref="I10:L10" si="3">((SUM(I5:I8)-I9)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="3"/>
+        <v>4.8986951999999961</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="3"/>
+        <v>5.3742588000000033</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="3"/>
+        <v>8.582297999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>D5</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1.64</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.54666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1183.8</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>D6</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17">
+        <f>(C11-C12)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <f>SUM(H5:H9)+SUM(H10:H11)</f>
+        <v>125.326652</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" ref="I13:L13" si="4">SUM(I5:I9)+SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="4"/>
+        <v>32.687001866666641</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="4"/>
+        <v>35.804585466666687</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="4"/>
+        <v>56.835064666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15">
+        <f>H15/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="15">
+        <f>H15/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="L15" s="15">
+        <f>H15/3</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1565.8</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>D5</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15">
+        <f>(H16/3)</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K16" s="15">
+        <f>H16/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1506.1</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>D6</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="79">
+        <f>(C16-C17)</f>
+        <v>59.700000000000045</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
+        <f>(H13+H15-H16)</f>
+        <v>125.396652</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" ref="I18:L18" si="5">(I13+I15-I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="5"/>
+        <v>32.710335199999975</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="5"/>
+        <v>35.82791880000002</v>
+      </c>
+      <c r="L18" s="31">
+        <f t="shared" si="5"/>
+        <v>56.858398000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="34">
+        <f>(C7-C13-C18)</f>
+        <v>99.5</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="88">
+        <f>J18</f>
+        <v>32.710335199999975</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía NOVIEMBRE 2015</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 03-DIC-2015</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="58"/>
+      <c r="L28" s="61"/>
+    </row>
+    <row r="29" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <f>C5</f>
+        <v>14077.3</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f>D5</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15">
+        <f>(H29/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K29" s="58"/>
+      <c r="L29" s="61"/>
+    </row>
+    <row r="30" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <f>C6</f>
+        <v>13864.3</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f>D6</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14">
+        <f>H6</f>
+        <v>1.31</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15">
+        <f t="shared" ref="J30" si="6">(H30/3)</f>
+        <v>0.4366666666666667</v>
+      </c>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="31" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="17">
+        <f>(C29-C30)</f>
+        <v>213</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="13">
+        <f>G7</f>
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="H31" s="19">
+        <f>(C31*G31)</f>
+        <v>95.381399999999999</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
+        <f>(C42*G31)</f>
+        <v>26.733660000000018</v>
+      </c>
+      <c r="K31" s="58"/>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15">
+        <f t="shared" ref="J32" si="7">(H32/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="str">
+        <f>F9</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14">
+        <f>H9</f>
+        <v>0.04</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15">
+        <f>J9</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+    </row>
+    <row r="34" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14">
+        <f>((SUM(H29:H33))*0.18)</f>
+        <v>18.869651999999999</v>
+      </c>
+      <c r="I34" s="14">
+        <f>((SUM(I29:I33))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f>((SUM(J29:J33))*0.18)</f>
+        <v>5.3790588000000028</v>
+      </c>
+      <c r="K34" s="58"/>
+      <c r="L34" s="65"/>
+    </row>
+    <row r="35" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="77">
+        <f>C11</f>
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="D35" s="23" t="str">
+        <f>D29</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15">
+        <f t="shared" ref="J35" si="8">(H35/3)</f>
+        <v>0.68</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+    </row>
+    <row r="36" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="78">
+        <f>C12</f>
+        <v>1183.8</v>
+      </c>
+      <c r="D36" s="11" t="str">
+        <f>D30</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="79">
+        <f>(C35-C36)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14">
+        <f>SUM(H29:H33)+SUM(H34:H35)</f>
+        <v>125.741052</v>
+      </c>
+      <c r="I37" s="14">
+        <f>SUM(I29:I33)+SUM(I34:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <f>SUM(J29:J33)+SUM(J34:J35)</f>
+        <v>35.942718800000023</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
+    </row>
+    <row r="38" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
+        <f>H39/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K39" s="49"/>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="80">
+        <f>C16</f>
+        <v>1565.8</v>
+      </c>
+      <c r="D40" s="23" t="str">
+        <f>D35</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14">
+        <f>H16</f>
+        <v>0.02</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="32">
+        <f>H40/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+    </row>
+    <row r="41" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <f>C17</f>
+        <v>1506.1</v>
+      </c>
+      <c r="D41" s="11" t="str">
+        <f>D36</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="17">
+        <f>(C40-C41)</f>
+        <v>59.700000000000045</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31">
+        <f>(H37+H39-H40)</f>
+        <v>125.741052</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" ref="I42:J42" si="9">(I37+I39-I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" si="9"/>
+        <v>35.942718800000023</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="12"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C44" s="93"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="34">
+        <f>(C31-C37-C42)</f>
+        <v>99.5</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="88">
+        <f>J42</f>
+        <v>35.942718800000023</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+    </row>
+    <row r="46" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="44"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+    </row>
+    <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía NOVIEMBRE 2015</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 03-DIC-2015</v>
+      </c>
+      <c r="K50" s="58"/>
+      <c r="L50" s="61"/>
+    </row>
+    <row r="51" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="90"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
+    </row>
+    <row r="53" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <f>C29</f>
+        <v>14077.3</v>
+      </c>
+      <c r="D53" s="11" t="str">
+        <f>D29</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14">
+        <f>H5</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15">
+        <f>(H53/3)</f>
+        <v>0.82333333333333336</v>
+      </c>
+      <c r="K53" s="58"/>
+      <c r="L53" s="61"/>
+    </row>
+    <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10">
+        <f>C30</f>
+        <v>13864.3</v>
+      </c>
+      <c r="D54" s="11" t="str">
+        <f>D30</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14">
+        <f>H6</f>
+        <v>1.31</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15">
+        <f t="shared" ref="J54" si="10">(H54/3)</f>
+        <v>0.4366666666666667</v>
+      </c>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="17">
+        <f>(C53-C54)</f>
+        <v>213</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="13">
+        <f>G7</f>
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="H55" s="19">
+        <f>(C55*G55)</f>
+        <v>95.381399999999999</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20">
+        <f>(C69*G55)</f>
+        <v>44.556100000000001</v>
+      </c>
+      <c r="K55" s="58"/>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15">
+        <f t="shared" ref="J56" si="11">(H56/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K56" s="58"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="str">
+        <f>F33</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14">
+        <f>H33</f>
+        <v>0.04</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15">
+        <f>J33</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="K57" s="58"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14">
+        <f>((SUM(H53:H57))*0.18)</f>
+        <v>18.869651999999999</v>
+      </c>
+      <c r="I58" s="14">
+        <f>((SUM(I53:I57))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <f>((SUM(J53:J57))*0.18)</f>
+        <v>8.5870979999999992</v>
+      </c>
+      <c r="K58" s="58"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="77">
+        <f>C11</f>
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="D59" s="23" t="str">
+        <f>D53</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="13">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H59" s="14">
+        <f>H11</f>
+        <v>1.64</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15">
+        <f t="shared" ref="J59" si="12">(H59/3)</f>
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="K59" s="66"/>
+      <c r="L59" s="67"/>
+    </row>
+    <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="78">
+        <f>C12</f>
+        <v>1183.8</v>
+      </c>
+      <c r="D60" s="11" t="str">
+        <f>D54</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="65"/>
+    </row>
+    <row r="61" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="79">
+        <f>(C59-C60)</f>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14">
+        <f>SUM(H53:H57)+SUM(H58:H59)</f>
+        <v>125.341052</v>
+      </c>
+      <c r="I61" s="14">
+        <f>SUM(I53:I57)+SUM(I58:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <f>SUM(J53:J57)+SUM(J58:J59)</f>
+        <v>56.839864666666664</v>
+      </c>
+      <c r="K61" s="49"/>
+      <c r="L61" s="65"/>
+    </row>
+    <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+    </row>
+    <row r="63" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14">
+        <f>H15</f>
+        <v>0.09</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
+        <f>H63/3</f>
+        <v>0.03</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="80">
+        <f>C16</f>
+        <v>1565.8</v>
+      </c>
+      <c r="D64" s="23" t="str">
+        <f>D59</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14">
+        <f>H16</f>
+        <v>0.02</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="32">
+        <f>H64/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <f>C17</f>
+        <v>1506.1</v>
+      </c>
+      <c r="D65" s="11" t="str">
+        <f>D60</f>
+        <v>(19/10/15)</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="17">
+        <f>(C64-C65)</f>
+        <v>59.700000000000045</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31">
+        <f>(H61+H63-H64)</f>
+        <v>125.41105200000001</v>
+      </c>
+      <c r="I66" s="31">
+        <f t="shared" ref="I66:J66" si="13">(I61+I63-I64)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="31">
+        <f t="shared" si="13"/>
+        <v>56.863197999999997</v>
+      </c>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+    </row>
+    <row r="67" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="12"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+    </row>
+    <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+    </row>
+    <row r="69" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="34">
+        <f>(C55-C61-C66)</f>
+        <v>99.5</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="88">
+        <f>J66</f>
+        <v>56.863197999999997</v>
       </c>
       <c r="I69" s="31"/>
       <c r="J69" s="8"/>

--- a/Luz/SUM 109048/Recibos_luz_109048.xlsx
+++ b/Luz/SUM 109048/Recibos_luz_109048.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 109048\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="AGOSTO 14" sheetId="5" r:id="rId1"/>
@@ -22,6 +27,7 @@
     <sheet name="SET 15" sheetId="17" r:id="rId13"/>
     <sheet name="OCT 15" sheetId="18" r:id="rId14"/>
     <sheet name="NOV 15" sheetId="19" r:id="rId15"/>
+    <sheet name="DIC 15" sheetId="20" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'DIC 14'!$B$1:$J$64</definedName>
@@ -30,12 +36,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'MAR 15'!$B$1:$J$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'MAY 15'!$B$1:$J$69</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="93">
   <si>
     <t>Lectura Actual</t>
   </si>
@@ -305,6 +311,15 @@
   </si>
   <si>
     <t>FECHA DE VENCIMIENTO: 03-DIC-2015</t>
+  </si>
+  <si>
+    <t>Consumo Energía DICIEMBRE 2015</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 07-ENE-2016</t>
+  </si>
+  <si>
+    <t>(16/12/15)</t>
   </si>
 </sst>
 </file>
@@ -925,7 +940,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,7 +975,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10814,8 +10829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12533,6 +12548,1734 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B63:D63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>14278.8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
+        <v>2.48</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15">
+        <f>(H5/3)</f>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="K5" s="15">
+        <f>H5/3</f>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="L5" s="15">
+        <f>H5/3</f>
+        <v>0.82666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>14077.3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
+        <v>1.32</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15">
+        <f t="shared" ref="J6:J12" si="0">(H6/3)</f>
+        <v>0.44</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:K12" si="1">H6/3</f>
+        <v>0.44</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" ref="L6:L16" si="2">H6/3</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17">
+        <f>(C5-C6)</f>
+        <v>201.5</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H7" s="19">
+        <f>(C7*G7)</f>
+        <v>90.876500000000007</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="15">
+        <f>G7*C13</f>
+        <v>26.203100000000063</v>
+      </c>
+      <c r="K7" s="15">
+        <f>G7*C18</f>
+        <v>23.226500000000001</v>
+      </c>
+      <c r="L7" s="15">
+        <f>G7*C21</f>
+        <v>41.446899999999943</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <v>5.63</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15">
+        <f>(H8/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8766666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15">
+        <f>(H9/3)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14">
+        <f>((SUM(H5:H8)-H9)*0.18)</f>
+        <v>18.049769999999999</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" ref="I10:L10" si="3">((SUM(I5:I8)-I9)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="3"/>
+        <v>5.2805580000000107</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="3"/>
+        <v>4.744769999999999</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="3"/>
+        <v>8.0244419999999899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1295.7</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>D5</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1.55</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>D6</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17">
+        <f>(C11-C12)</f>
+        <v>58.100000000000136</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <f>SUM(H5:H9)+SUM(H10:H11)</f>
+        <v>119.93627000000001</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" ref="I13:L13" si="4">SUM(I5:I9)+SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="4"/>
+        <v>35.153658000000071</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="4"/>
+        <v>31.641269999999999</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="4"/>
+        <v>53.141341999999931</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15">
+        <f>H15/3</f>
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="15">
+        <f>H15/3</f>
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="15">
+        <f>H15/3</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1617.3</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f>D5</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15">
+        <f>(H16/3)</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="K16" s="15">
+        <f>H16/3</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1565.8</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f>D6</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="79">
+        <f>(C16-C17)</f>
+        <v>51.5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
+        <f>(H13+H15-H16)</f>
+        <v>119.89627000000002</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" ref="I18:L18" si="5">(I13+I15-I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="5"/>
+        <v>35.140324666666736</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="5"/>
+        <v>31.627936666666667</v>
+      </c>
+      <c r="L18" s="31">
+        <f t="shared" si="5"/>
+        <v>53.128008666666595</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="34">
+        <f>(C7-C13-C18)</f>
+        <v>91.899999999999864</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="88">
+        <f>J18</f>
+        <v>35.140324666666736</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía DICIEMBRE 2015</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 07-ENE-2016</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="58"/>
+      <c r="L28" s="61"/>
+    </row>
+    <row r="29" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <f>C5</f>
+        <v>14278.8</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f>D5</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14">
+        <f>H5</f>
+        <v>2.48</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15">
+        <f>(H29/3)</f>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="K29" s="58"/>
+      <c r="L29" s="61"/>
+    </row>
+    <row r="30" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <f>C6</f>
+        <v>14077.3</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f>D6</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14">
+        <f>H6</f>
+        <v>1.32</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15">
+        <f t="shared" ref="J30" si="6">(H30/3)</f>
+        <v>0.44</v>
+      </c>
+      <c r="K30" s="63"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="31" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="17">
+        <f>(C29-C30)</f>
+        <v>201.5</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="13">
+        <f>G7</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H31" s="19">
+        <f>(C31*G31)</f>
+        <v>90.876500000000007</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
+        <f>(C42*G31)</f>
+        <v>23.226500000000001</v>
+      </c>
+      <c r="K31" s="58"/>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15">
+        <f t="shared" ref="J32" si="7">(H32/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="33" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="str">
+        <f>F9</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14">
+        <f>H9</f>
+        <v>0.03</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15">
+        <f>J9</f>
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+    </row>
+    <row r="34" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14">
+        <f>((SUM(H29:H33))*0.18)</f>
+        <v>18.060569999999998</v>
+      </c>
+      <c r="I34" s="14">
+        <f>((SUM(I29:I33))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f>((SUM(J29:J33))*0.18)</f>
+        <v>4.7483699999999995</v>
+      </c>
+      <c r="K34" s="58"/>
+      <c r="L34" s="65"/>
+    </row>
+    <row r="35" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="77">
+        <f>C11</f>
+        <v>1295.7</v>
+      </c>
+      <c r="D35" s="23" t="str">
+        <f>D29</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="13">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15">
+        <f t="shared" ref="J35" si="8">(H35/3)</f>
+        <v>0.68</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+    </row>
+    <row r="36" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="78">
+        <f>C12</f>
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="D36" s="11" t="str">
+        <f>D30</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="79">
+        <f>(C35-C36)</f>
+        <v>58.100000000000136</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14">
+        <f>SUM(H29:H33)+SUM(H34:H35)</f>
+        <v>120.43707000000001</v>
+      </c>
+      <c r="I37" s="14">
+        <f>SUM(I29:I33)+SUM(I34:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <f>SUM(J29:J33)+SUM(J34:J35)</f>
+        <v>31.808203333333331</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
+    </row>
+    <row r="38" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</v>
+      </c>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
+        <f>H39/3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K39" s="49"/>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="80">
+        <f>C16</f>
+        <v>1617.3</v>
+      </c>
+      <c r="D40" s="23" t="str">
+        <f>D35</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14">
+        <f>H16</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="32">
+        <f>H40/3</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+    </row>
+    <row r="41" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <f>C17</f>
+        <v>1565.8</v>
+      </c>
+      <c r="D41" s="11" t="str">
+        <f>D36</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="17">
+        <f>(C40-C41)</f>
+        <v>51.5</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31">
+        <f>(H37+H39-H40)</f>
+        <v>120.38707000000001</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" ref="I42:J42" si="9">(I37+I39-I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" si="9"/>
+        <v>31.791536666666666</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="12"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C44" s="93"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="34">
+        <f>(C31-C37-C42)</f>
+        <v>91.899999999999864</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="88">
+        <f>J42</f>
+        <v>31.791536666666666</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+    </row>
+    <row r="46" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="44"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+    </row>
+    <row r="47" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="57"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="str">
+        <f>B2</f>
+        <v>Consumo Energía DICIEMBRE 2015</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="87" t="str">
+        <f>J2</f>
+        <v>FECHA DE VENCIMIENTO: 07-ENE-2016</v>
+      </c>
+      <c r="K50" s="58"/>
+      <c r="L50" s="61"/>
+    </row>
+    <row r="51" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="90"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="41"/>
+      <c r="J52" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
+    </row>
+    <row r="53" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <f>C29</f>
+        <v>14278.8</v>
+      </c>
+      <c r="D53" s="11" t="str">
+        <f>D29</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14">
+        <f>H5</f>
+        <v>2.48</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15">
+        <f>(H53/3)</f>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="K53" s="58"/>
+      <c r="L53" s="61"/>
+    </row>
+    <row r="54" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10">
+        <f>C30</f>
+        <v>14077.3</v>
+      </c>
+      <c r="D54" s="11" t="str">
+        <f>D30</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14">
+        <f>H6</f>
+        <v>1.32</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15">
+        <f t="shared" ref="J54" si="10">(H54/3)</f>
+        <v>0.44</v>
+      </c>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="17">
+        <f>(C53-C54)</f>
+        <v>201.5</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="13">
+        <f>G7</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H55" s="19">
+        <f>(C55*G55)</f>
+        <v>90.876500000000007</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20">
+        <f>(C69*G55)</f>
+        <v>41.446899999999943</v>
+      </c>
+      <c r="K55" s="58"/>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14">
+        <f>H8</f>
+        <v>5.63</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15">
+        <f t="shared" ref="J56" si="11">(H56/3)</f>
+        <v>1.8766666666666667</v>
+      </c>
+      <c r="K56" s="58"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="str">
+        <f>F33</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14">
+        <f>H33</f>
+        <v>0.03</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15">
+        <f>J33</f>
+        <v>0.01</v>
+      </c>
+      <c r="K57" s="58"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14">
+        <f>((SUM(H53:H57))*0.18)</f>
+        <v>18.060569999999998</v>
+      </c>
+      <c r="I58" s="14">
+        <f>((SUM(I53:I57))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <f>((SUM(J53:J57))*0.18)</f>
+        <v>8.0280419999999886</v>
+      </c>
+      <c r="K58" s="58"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="77">
+        <f>C11</f>
+        <v>1295.7</v>
+      </c>
+      <c r="D59" s="23" t="str">
+        <f>D53</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="13">
+        <f>G11</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H59" s="14">
+        <f>H11</f>
+        <v>1.55</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15">
+        <f t="shared" ref="J59" si="12">(H59/3)</f>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="K59" s="66"/>
+      <c r="L59" s="67"/>
+    </row>
+    <row r="60" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="78">
+        <f>C12</f>
+        <v>1237.5999999999999</v>
+      </c>
+      <c r="D60" s="11" t="str">
+        <f>D54</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="65"/>
+    </row>
+    <row r="61" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="79">
+        <f>(C59-C60)</f>
+        <v>58.100000000000136</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14">
+        <f>SUM(H53:H57)+SUM(H58:H59)</f>
+        <v>119.94707</v>
+      </c>
+      <c r="I61" s="14">
+        <f>SUM(I53:I57)+SUM(I58:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <f>SUM(J53:J57)+SUM(J58:J59)</f>
+        <v>53.144941999999929</v>
+      </c>
+      <c r="K61" s="49"/>
+      <c r="L61" s="65"/>
+    </row>
+    <row r="62" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+    </row>
+    <row r="63" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="92" t="str">
+        <f>B15</f>
+        <v>MEDIDOR 2 - M2 (Sr. Miguel Feijoo)</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14">
+        <f>H15</f>
+        <v>0.03</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
+        <f>H63/3</f>
+        <v>0.01</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="80">
+        <f>C16</f>
+        <v>1617.3</v>
+      </c>
+      <c r="D64" s="23" t="str">
+        <f>D59</f>
+        <v>(16/12/15)</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14">
+        <f>H16</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="32">
+        <f>H64/3</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <f>C17</f>
+        <v>1565.8</v>
+      </c>
+      <c r="D65" s="11" t="str">
+        <f>D60</f>
+        <v>(17/11/15)</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="17">
+        <f>(C64-C65)</f>
+        <v>51.5</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31">
+        <f>(H61+H63-H64)</f>
+        <v>119.90707</v>
+      </c>
+      <c r="I66" s="31">
+        <f t="shared" ref="I66:J66" si="13">(I61+I63-I64)</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="31">
+        <f t="shared" si="13"/>
+        <v>53.131608666666594</v>
+      </c>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+    </row>
+    <row r="67" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="12"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+    </row>
+    <row r="68" spans="2:12" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="92" t="str">
+        <f>B20</f>
+        <v>MEDIDOR P- MP (Sr. Javier Calle)</v>
+      </c>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+    </row>
+    <row r="69" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="34">
+        <f>(C55-C61-C66)</f>
+        <v>91.899999999999864</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="88">
+        <f>J66</f>
+        <v>53.131608666666594</v>
+      </c>
+      <c r="I69" s="31"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I71" s="44"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14098,11 +15841,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A40:C40"/>
@@ -14110,6 +15848,11 @@
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
